--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento Kikuchi\Documents\ケイ・アクシス\03.開発設計\0320.自宅運転台\Arduino\MC53_ME38_BVE\図面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C9BAD-4DDC-4F93-BD52-475DBA3A84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BA92E-B55B-495B-AEAF-425B6833F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{DFC896E3-33E5-4CD0-8E08-0C2F69A62AB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型番</t>
     <rPh sb="0" eb="2">
       <t>カタバン</t>
@@ -201,29 +197,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10kΩ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U1用ICソケット(28Pin)</t>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2用ICソケット(16Pin)</t>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -259,14 +237,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Q2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デジタルトランジスタ(NPN)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,16 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主要部品表</t>
-    <rPh sb="0" eb="2">
-      <t>シュヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ブヒンヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基板用小型トグルスイッチ(3Pトグルスイッチ) 1回路2接点</t>
   </si>
   <si>
@@ -410,10 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16V/25V 1000uF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>電源安定用</t>
     <rPh sb="0" eb="2">
       <t>デンゲン</t>
@@ -427,14 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>抵抗</t>
     <rPh sb="0" eb="2">
       <t>テイコウ</t>
@@ -518,6 +466,152 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDC50A003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレーキ弁角度検出</t>
+    <rPh sb="4" eb="5">
+      <t>ベン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転角度検出センサー（ポテンショメータ）</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q2(実装なし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q1(実装なし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1(実装なし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2(実装なし)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎用小信号高速スイッチング・ダイオード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1N4148</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2227-16-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2227-28-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICソケット(28Pin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICソケット(16Pin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U1用ICソケット</t>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2用ICソケット</t>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品表</t>
+    <rPh sb="0" eb="3">
+      <t>ブヒンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16V or 25V  470uF or 1000uF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩解位置設定用</t>
+    <rPh sb="0" eb="2">
+      <t>カンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セッテイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常(最大回転位置)設定用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッテイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -529,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +647,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -647,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,12 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,6 +788,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E37EEAE-6731-4A32-990E-0394988F6AE5}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1017,400 +1132,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
+      <c r="E16" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
+      <c r="B22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PartsList.xlsx
+++ b/PartsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento Kikuchi\Documents\ケイ・アクシス\03.開発設計\0320.自宅運転台\Arduino\MC53_ME38_BVE\図面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43BA92E-B55B-495B-AEAF-425B6833F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2638BAF-167C-4BB9-A692-0C27514B1655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{DFC896E3-33E5-4CD0-8E08-0C2F69A62AB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -457,19 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指定なし、サイドアングル型を推奨</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参考</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -613,6 +600,114 @@
     <rPh sb="10" eb="13">
       <t>セッテイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋月電子
+サンハヤト</t>
+    <rPh sb="0" eb="4">
+      <t>アキヅキデンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片面紙エポキシ・ユニバーサル基板 Aの小　または
+ユニバーサル基板（ガラスコンポジット片面／95×138×1.6t）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AE-5　または
+ICB-97B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドスイッチ 1回路2接点 基板用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS-12D00G3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATS確認回路構成(標準：ON)</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット機能有効化(標準：OFF)</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定なし、サイドアングル型を推奨 DF1B、XH、mini-Latch など</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全版/標準版</t>
+    <rPh sb="0" eb="3">
+      <t>カンゼンバン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡易版</t>
+    <rPh sb="0" eb="3">
+      <t>カンイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -759,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +873,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,15 +901,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,13 +1217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E37EEAE-6731-4A32-990E-0394988F6AE5}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25:E25"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1128,19 +1232,23 @@
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1154,29 +1262,41 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1185,32 +1305,44 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -1219,15 +1351,21 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1236,334 +1374,519 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="11" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="11" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
